--- a/TestCasesofGmail.xlsx
+++ b/TestCasesofGmail.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="BDD Test cases" sheetId="2" r:id="rId2"/>
+    <sheet name=" BDD Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Traditional Test cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
   <si>
     <t>Test Cases of Compose the gmail</t>
   </si>
@@ -1625,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="57" spans="1:28">
+    <row r="3" s="1" customFormat="1" ht="42.75" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A2:AA14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2072,7 +2072,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" ht="60" spans="1:6">
+    <row r="5" ht="90" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2088,8 +2088,14 @@
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="60" spans="1:6">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="165" spans="1:8">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2111,14 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" ht="60" spans="1:6">
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="1:8">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2122,8 +2134,14 @@
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="60" spans="1:6">
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="150" spans="1:8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2139,8 +2157,14 @@
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="60" spans="1:6">
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="150" spans="1:8">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2156,8 +2180,14 @@
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" ht="60" spans="1:6">
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="180" spans="1:8">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2173,8 +2203,14 @@
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" ht="60" spans="1:6">
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="210" spans="1:8">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2190,8 +2226,14 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="60" spans="1:6">
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="180" spans="1:8">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2207,8 +2249,14 @@
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="60" spans="1:6">
+      <c r="G12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="180" spans="1:8">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2224,8 +2272,14 @@
       <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" ht="60" spans="1:6">
+      <c r="G13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" ht="195" spans="1:8">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2240,6 +2294,12 @@
       </c>
       <c r="F14" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
